--- a/src/Application/ZMK.Application.Implementation/Templates/modifyMarkEventsReportTemplate.xlsx
+++ b/src/Application/ZMK.Application.Implementation/Templates/modifyMarkEventsReportTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrey\source\repos\ZMK\src\Application\ZMK.Application.Implementation\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF72CDE7-E7D9-4259-99AD-F38B4CE9D26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0428A51F-8845-4DD2-A29F-0231250551AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="История изменений марки" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Events">'История изменений марки'!$A$11:$I$12</definedName>
+    <definedName name="Events">'История изменений марки'!$A$12:$J$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Дата составления отчета</t>
   </si>
@@ -42,21 +42,12 @@
     <t>{{MarkTitle}}</t>
   </si>
   <si>
-    <t>Код марки</t>
-  </si>
-  <si>
     <t>{{MarkCode}}</t>
   </si>
   <si>
-    <t>Количество марки</t>
-  </si>
-  <si>
     <t>{{MarkCount}}</t>
   </si>
   <si>
-    <t>Вес марки</t>
-  </si>
-  <si>
     <t>{{MarkWeight}}</t>
   </si>
   <si>
@@ -97,6 +88,24 @@
   </si>
   <si>
     <t>{{item.MarkCount}}</t>
+  </si>
+  <si>
+    <t>Очередность</t>
+  </si>
+  <si>
+    <t>Марка</t>
+  </si>
+  <si>
+    <t>Вес</t>
+  </si>
+  <si>
+    <t>{{MarkOrder}}</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>{{item.MarkOrder}}</t>
   </si>
 </sst>
 </file>
@@ -437,24 +446,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I11"/>
+  <dimension ref="B3:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="3" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +472,9 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -473,87 +483,108 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4" t="s">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
